--- a/AAII_Financials/Quarterly/ASIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASIN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>ASIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,81 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
-        <v>43281</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>40178</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>40086</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>39994</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>39903</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
+      <c r="E8" s="3">
+        <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
@@ -750,20 +756,26 @@
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>4300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>6200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>6200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +812,14 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +856,14 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +878,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +918,14 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +962,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -956,20 +994,26 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>1600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>3400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>3300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1050,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,8 +1069,10 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1028,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1046,27 +1098,33 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
+      <c r="E18" s="3">
+        <v>-100</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
@@ -1083,20 +1141,26 @@
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,16 +1175,18 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
@@ -1137,11 +1203,11 @@
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1149,8 +1215,14 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1187,8 +1259,14 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1198,20 +1276,20 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1225,8 +1303,14 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1234,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1252,19 +1336,25 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1391,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,8 +1435,14 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1348,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1366,19 +1468,25 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1386,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1404,19 +1512,25 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>2300</v>
       </c>
       <c r="N27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O27" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P27" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1567,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1611,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1655,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,16 +1699,22 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
+      <c r="E32" s="3">
+        <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
@@ -1593,11 +1731,11 @@
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -1605,8 +1743,14 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1614,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1632,19 +1776,25 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>2300</v>
       </c>
       <c r="N33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O33" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P33" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,8 +1831,14 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1690,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1708,62 +1864,74 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>2300</v>
       </c>
       <c r="N35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O35" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P35" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
-        <v>43281</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>40178</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>40086</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>39994</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>39903</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1946,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,8 +1964,10 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1811,67 +1983,79 @@
       <c r="G41" s="3">
         <v>0</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="3">
         <v>43500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>40400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>37700</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1897,19 +2081,25 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>4900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>6000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2136,14 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1984,8 +2180,14 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2001,29 +2203,35 @@
       <c r="G46" s="3">
         <v>0</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3">
         <v>48600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>47300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>42000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,8 +2268,14 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2098,8 +2312,14 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2125,19 +2345,25 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>16500</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>16500</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3">
         <v>16500</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>16500</v>
+      </c>
+      <c r="O49" s="3">
+        <v>16500</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2400,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2444,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2250,8 +2488,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,8 +2532,14 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2305,29 +2555,35 @@
       <c r="G54" s="3">
         <v>0</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3">
         <v>65200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>63800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>58600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2598,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,34 +2616,36 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
@@ -2396,31 +2656,37 @@
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -2434,8 +2700,14 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2446,34 +2718,40 @@
         <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2484,34 +2762,40 @@
         <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,8 +2832,14 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2575,19 +2865,25 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>4600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>6000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3600</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2920,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2964,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3008,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
         <v>100</v>
       </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3">
         <v>7500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>9400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3074,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3114,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3158,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2860,16 +3194,22 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>36000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>36000</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,16 +3246,22 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-36100</v>
+        <v>-36300</v>
       </c>
       <c r="E72" s="3">
-        <v>-36100</v>
+        <v>-36300</v>
       </c>
       <c r="F72" s="3">
         <v>-36100</v>
@@ -2923,29 +3269,35 @@
       <c r="G72" s="3">
         <v>-36100</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="H72" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
         <v>17300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>14000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>11800</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3334,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3378,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3422,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3">
         <v>57700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>18400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>16300</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,51 +3510,63 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
-        <v>43281</v>
-      </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>40178</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>40086</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>39994</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>39903</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3186,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -3204,19 +3592,25 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>2300</v>
       </c>
       <c r="N81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O81" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P81" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3625,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3665,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3709,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3753,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3797,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3841,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3885,14 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3468,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -3486,19 +3918,25 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1400</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3951,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3991,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4035,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +4079,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
         <v>200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-34400</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4145,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4185,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4229,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4273,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4317,14 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3842,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -3866,13 +4356,19 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>36000</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,8 +4405,14 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3933,18 +4435,24 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ASIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ASIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>ASIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,77 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40178</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40086</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>39994</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>39903</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,20 +745,20 @@
       <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
@@ -762,20 +766,23 @@
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
         <v>4300</v>
-      </c>
-      <c r="N8" s="3">
-        <v>6200</v>
       </c>
       <c r="O8" s="3">
         <v>6200</v>
       </c>
       <c r="P8" s="3">
+        <v>6200</v>
+      </c>
+      <c r="Q8" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -818,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -862,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -924,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1000,20 +1020,23 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>1600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3400</v>
-      </c>
-      <c r="O14" s="3">
-        <v>3300</v>
       </c>
       <c r="P14" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,20 +1097,21 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -1104,19 +1131,22 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>3300</v>
       </c>
       <c r="P17" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1124,22 +1154,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
@@ -1147,20 +1177,23 @@
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1188,20 +1222,20 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
@@ -1209,8 +1243,8 @@
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1221,8 +1255,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1265,19 +1302,22 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1285,14 +1325,14 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1309,20 +1349,23 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1342,19 +1385,22 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1397,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,20 +1490,23 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1474,31 +1526,34 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1518,19 +1573,22 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1716,20 +1786,20 @@
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
@@ -1737,8 +1807,8 @@
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -1749,20 +1819,23 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -1782,19 +1855,22 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,20 +1913,23 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -1870,68 +1949,74 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40178</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40086</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>39994</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>39903</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,8 +2052,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1992,26 +2079,29 @@
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
-      </c>
-      <c r="N41" s="3">
-        <v>900</v>
       </c>
       <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2036,26 +2126,29 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
+      <c r="K42" s="3">
+        <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="3">
         <v>43500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>40400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>37700</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2087,19 +2180,22 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>4900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3400</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,31 +2238,34 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2186,8 +2285,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2212,26 +2314,29 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
+      <c r="K46" s="3">
+        <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3">
         <v>48600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>47300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>42000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2274,8 +2379,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2318,8 +2426,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2351,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
-        <v>16500</v>
+        <v>0</v>
       </c>
       <c r="N49" s="3">
         <v>16500</v>
@@ -2359,11 +2470,14 @@
       <c r="O49" s="3">
         <v>16500</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>16500</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2494,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,8 +2661,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2564,26 +2690,29 @@
       <c r="J54" s="3">
         <v>0</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
+      <c r="K54" s="3">
+        <v>0</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3">
         <v>65200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>63800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>58600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,8 +2748,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2644,52 +2775,55 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -2706,8 +2840,11 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2732,26 +2869,29 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>200</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2776,26 +2916,29 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
+      <c r="K60" s="3">
+        <v>0</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M60" s="3">
-        <v>200</v>
+      <c r="M60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2838,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2871,19 +3017,22 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>4600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3600</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>300</v>
+      </c>
+      <c r="E66" s="3">
         <v>200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
       <c r="G66" s="3">
         <v>0</v>
       </c>
       <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
       <c r="J66" s="3">
         <v>0</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
+      <c r="K66" s="3">
+        <v>0</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3">
         <v>7500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3200,16 +3368,19 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>36000</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>36000</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+        <v>36000</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,19 +3423,22 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-36300</v>
+        <v>-36400</v>
       </c>
       <c r="E72" s="3">
         <v>-36300</v>
       </c>
       <c r="F72" s="3">
-        <v>-36100</v>
+        <v>-36300</v>
       </c>
       <c r="G72" s="3">
         <v>-36100</v>
@@ -3278,26 +3452,29 @@
       <c r="J72" s="3">
         <v>-36100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
+      <c r="K72" s="3">
+        <v>-36100</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3">
         <v>17300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11800</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
         <v>0</v>
       </c>
       <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3">
         <v>57700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16300</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,69 +3705,75 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40178</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40086</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>39994</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>39903</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -3598,19 +3793,22 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3671,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,20 +4105,23 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -3924,19 +4141,22 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>1400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1400</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3997,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4111,26 +4341,29 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-34400</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,20 +4566,23 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -4362,13 +4608,16 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>36000</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4441,18 +4693,21 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>
